--- a/db v1.1.xlsx
+++ b/db v1.1.xlsx
@@ -122,10 +122,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -133,13 +133,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -197,13 +190,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -258,6 +244,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -301,187 +301,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -615,10 +615,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -627,137 +627,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -775,9 +775,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1130,7 +1127,7 @@
   <dimension ref="A2:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1538,10 +1535,10 @@
       <c r="A30" s="4">
         <v>5</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D30" s="4" t="s">
@@ -1559,7 +1556,7 @@
       <c r="H30" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I30" s="6"/>
+      <c r="I30" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
